--- a/servicio/store/datos.xlsx
+++ b/servicio/store/datos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="encabezado" sheetId="1" state="visible" r:id="rId2"/>
@@ -495,11 +495,11 @@
   </sheetPr>
   <dimension ref="A1:B322"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A4:B16 B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.9"/>
@@ -650,7 +650,7 @@
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -1580,10 +1580,10 @@
   <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A4:B16 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.06"/>
@@ -1720,11 +1720,11 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="A4:B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.73"/>
